--- a/assets/files/CV20.xlsx
+++ b/assets/files/CV20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -318,14 +318,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,1997 +635,1997 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="5"/>
-    <col min="14" max="14" width="8.85546875" style="6"/>
-    <col min="20" max="20" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="14" max="14" width="8.88671875" style="5"/>
+    <col min="20" max="20" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>57.286432160804019</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>11.055276381909549</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>24.120603015075378</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>6.5326633165829149</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>1.0050251256281406</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <v>52.38095238095238</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <v>24.338624338624339</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="6">
         <v>19.576719576719576</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <v>3.1746031746031744</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="6">
         <v>0.52910052910052907</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="8">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="6">
         <v>54.896907216494846</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="6">
         <v>17.52577319587629</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="6">
         <v>21.907216494845361</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="6">
         <v>4.8969072164948457</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="6">
         <v>0.77319587628865982</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="8">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>29.149797570850204</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>31.174089068825911</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>11.740890688259109</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>26.315789473684209</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>1.6194331983805668</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>247</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <v>37.190082644628099</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="6">
         <v>33.884297520661157</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="6">
         <v>6.6115702479338845</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="6">
         <v>21.487603305785125</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="6">
         <v>0.82644628099173556</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="8">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="6">
         <v>31.793478260869566</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="6">
         <v>32.065217391304351</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="6">
         <v>10.054347826086957</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="6">
         <v>24.728260869565219</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="6">
         <v>1.3586956521739131</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="8">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>36.748329621380847</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>13.808463251670378</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>43.207126948775056</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>4.8997772828507795</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>1.3363028953229399</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>449</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>42.677824267782427</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>8.3682008368200833</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="6">
         <v>45.606694560669453</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="6">
         <v>2.510460251046025</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="6">
         <v>0.83682008368200833</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="8">
         <v>239</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="6">
         <v>38.808139534883722</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="6">
         <v>11.918604651162791</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="6">
         <v>44.040697674418603</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="6">
         <v>4.0697674418604652</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="6">
         <v>1.1627906976744187</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="8">
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>33.333333333333336</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>43.589743589743591</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>19.23076923076923</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>3.8461538461538463</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
         <v>78</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>48.201438848920866</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>25.179856115107913</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <v>23.021582733812949</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="6">
         <v>2.8776978417266186</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="6">
         <v>0.71942446043165464</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="8">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="6">
         <v>44.943820224719104</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="6">
         <v>29.213483146067414</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="6">
         <v>22.191011235955056</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="6">
         <v>3.0898876404494384</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="6">
         <v>0.5617977528089888</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="8">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>37.158469945355193</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>11.475409836065573</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>38.251366120218577</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>6.557377049180328</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>6.557377049180328</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="7">
         <v>183</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>44.117647058823529</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <v>17.647058823529413</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6">
         <v>24.509803921568629</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="6">
         <v>8.8235294117647065</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="6">
         <v>4.9019607843137258</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="8">
         <v>102</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="6">
         <v>39.649122807017541</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="6">
         <v>13.684210526315789</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="6">
         <v>33.333333333333336</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="6">
         <v>7.3684210526315788</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="6">
         <v>5.9649122807017543</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="8">
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>24.615384615384617</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>10.256410256410257</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>60.512820512820511</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>3.5897435897435899</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>1.0256410256410255</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="7">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <v>26.291079812206572</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6">
         <v>2.347417840375587</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="6">
         <v>68.544600938967136</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="6">
         <v>1.8779342723004695</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="6">
         <v>0.93896713615023475</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="8">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="6">
         <v>25.490196078431371</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="6">
         <v>6.1274509803921573</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="6">
         <v>64.705882352941174</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="6">
         <v>2.6960784313725492</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="6">
         <v>0.98039215686274506</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="8">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>30.232558139534884</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>25.581395348837209</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>23.255813953488371</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>18.604651162790699</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>2.3255813953488373</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="7">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <v>41.590214067278289</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <v>17.431192660550458</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6">
         <v>34.862385321100916</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="6">
         <v>5.81039755351682</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="6">
         <v>0.3058103975535168</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="8">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="6">
         <v>40.270270270270274</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="6">
         <v>18.378378378378379</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="6">
         <v>33.513513513513516</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="6">
         <v>7.2972972972972974</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="6">
         <v>0.54054054054054057</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="8">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>39.183673469387756</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>8.9795918367346932</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>44.897959183673471</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>3.2653061224489797</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>3.6734693877551021</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <v>50.359712230215827</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <v>20.14388489208633</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="6">
         <v>16.546762589928058</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="6">
         <v>11.510791366906474</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="6">
         <v>1.4388489208633093</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="8">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="6">
         <v>43.229166666666664</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="6">
         <v>13.020833333333334</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="6">
         <v>34.635416666666664</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="6">
         <v>6.25</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="6">
         <v>2.8645833333333335</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="8">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>55.172413793103445</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>12.64367816091954</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>22.988505747126435</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>6.8965517241379306</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <v>2.2988505747126435</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <v>63.345195729537366</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>8.8967971530249113</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="6">
         <v>26.334519572953738</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="6">
         <v>0.71174377224199292</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="6">
         <v>0.71174377224199292</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="8">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="6">
         <v>61.413043478260867</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="6">
         <v>9.7826086956521738</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="6">
         <v>25.543478260869566</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="6">
         <v>2.1739130434782608</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="6">
         <v>1.0869565217391304</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="8">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>31.658291457286431</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>2.0100502512562812</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>61.809045226130657</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>4.5226130653266328</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <v>199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <v>26.256983240223462</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <v>6.1452513966480451</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="6">
         <v>65.92178770949721</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="6">
         <v>1.1173184357541899</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="6">
         <v>0.55865921787709494</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="8">
         <v>179</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="6">
         <v>29.100529100529101</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="6">
         <v>3.9682539682539684</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="6">
         <v>63.75661375661376</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="6">
         <v>2.9100529100529102</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="6">
         <v>0.26455026455026454</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="8">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>76</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>9.3333333333333339</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>14.666666666666666</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
         <v>225</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <v>66.233766233766232</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <v>21.428571428571427</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="6">
         <v>11.688311688311689</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="6">
         <v>0.64935064935064934</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="6">
         <v>72.031662269129285</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="6">
         <v>14.248021108179419</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="6">
         <v>13.45646437994723</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="6">
         <v>0.26385224274406333</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>40.517241379310342</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>18.53448275862069</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
         <v>25</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>6.0344827586206895</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>9.9137931034482758</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="7">
         <v>232</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <v>34.579439252336449</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <v>12.149532710280374</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="6">
         <v>47.663551401869157</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="6">
         <v>2.8037383177570092</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
         <v>2.8037383177570092</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="8">
         <v>107</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="6">
         <v>38.643067846607671</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="6">
         <v>16.519174041297934</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="6">
         <v>32.153392330383483</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="6">
         <v>5.0147492625368733</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="6">
         <v>7.6696165191740411</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="8">
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>37.398373983739837</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>12.195121951219512</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>45.528455284552848</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>3.2520325203252032</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>1.6260162601626016</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="7">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <v>38</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="6">
         <v>48.8</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="6">
         <v>3.2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="6">
         <v>1.2</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="8">
         <v>250</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="6">
         <v>37.801608579088473</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="6">
         <v>9.9195710455764079</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="6">
         <v>47.721179624664877</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="6">
         <v>3.2171581769436997</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="6">
         <v>1.3404825737265416</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="8">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>43.75</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <v>43.75</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>10.416666666666666</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>2.0833333333333335</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <v>37.125748502994014</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="6">
         <v>54.491017964071858</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="6">
         <v>2.0958083832335328</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="6">
         <v>6.2874251497005984</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="6">
         <v>37.958115183246072</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="6">
         <v>53.141361256544499</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="6">
         <v>3.1413612565445028</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="6">
         <v>5.7591623036649215</v>
       </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>42.666666666666664</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>56</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6">
         <v>52.340425531914896</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="6">
         <v>3.4042553191489362</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="6">
         <v>43.829787234042556</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
         <v>0.42553191489361702</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="8">
         <v>235</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="6">
         <v>48.571428571428569</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="6">
         <v>2.3376623376623376</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="6">
         <v>48.571428571428569</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="6">
         <v>0.25974025974025972</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="6">
         <v>0.25974025974025972</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="8">
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
         <v>33.157894736842103</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="6">
         <v>16.578947368421051</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="6">
         <v>37.10526315789474</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="6">
         <v>12.105263157894736</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="6">
         <v>1.0526315789473684</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="8">
         <v>380</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="6">
         <v>33.157894736842103</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="6">
         <v>16.578947368421051</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="6">
         <v>37.10526315789474</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="6">
         <v>12.105263157894736</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="6">
         <v>1.0526315789473684</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="8">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>48.717948717948715</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>10.256410256410257</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <v>28.205128205128204</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>7.6923076923076925</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="6">
         <v>5.1282051282051286</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="7">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="6">
         <v>41.935483870967744</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="6">
         <v>31.085043988269796</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="6">
         <v>11.143695014662757</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="6">
         <v>14.369501466275659</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="6">
         <v>1.466275659824047</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="8">
         <v>341</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="6">
         <v>42.631578947368418</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="6">
         <v>28.94736842105263</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="6">
         <v>12.894736842105264</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="6">
         <v>13.684210526315789</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="6">
         <v>1.8421052631578947</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="8">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>45.664739884393065</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
         <v>54.335260115606935</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
         <v>173</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="6">
         <v>62.841530054644807</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="6">
         <v>1.639344262295082</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="6">
         <v>35.519125683060111</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="6">
         <v>54.49438202247191</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="6">
         <v>0.84269662921348309</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="6">
         <v>44.662921348314605</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="8">
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>33.333333333333336</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>18.181818181818183</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <v>15.151515151515152</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>30.303030303030305</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="6">
         <v>3.0303030303030303</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="7">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="6">
         <v>23.224043715846996</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="6">
         <v>42.349726775956285</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="6">
         <v>3.0054644808743167</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="6">
         <v>30.05464480874317</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="6">
         <v>1.3661202185792349</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="8">
         <v>366</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="6">
         <v>24.060150375939848</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="6">
         <v>40.350877192982459</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="6">
         <v>4.0100250626566414</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="6">
         <v>30.075187969924812</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="6">
         <v>1.5037593984962405</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="8">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>50.24630541871921</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="6">
         <v>12.807881773399014</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <v>32.019704433497537</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>2.9556650246305418</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="6">
         <v>1.9704433497536946</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="7">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="6">
         <v>50.555555555555557</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="6">
         <v>13.888888888888889</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="6">
         <v>31.111111111111111</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="6">
         <v>3.8888888888888888</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="6">
         <v>0.55555555555555558</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="8">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="6">
         <v>50.391644908616186</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="6">
         <v>13.315926892950392</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="6">
         <v>31.592689295039165</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="6">
         <v>3.3942558746736293</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="6">
         <v>1.3054830287206267</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="8">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>42.774566473988436</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>12.138728323699421</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <v>38.150289017341038</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>4.6242774566473992</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6">
         <v>2.3121387283236996</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="7">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="6">
         <v>51.219512195121951</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="6">
         <v>14.146341463414634</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="6">
         <v>28.780487804878049</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="6">
         <v>2.4390243902439024</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="6">
         <v>3.4146341463414633</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="8">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="6">
         <v>47.354497354497354</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="6">
         <v>13.227513227513228</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="6">
         <v>33.06878306878307</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="6">
         <v>3.4391534391534391</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="6">
         <v>2.9100529100529102</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="8">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>37.765957446808514</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
         <v>18.617021276595743</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <v>35.638297872340424</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>6.9148936170212769</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="6">
         <v>1.0638297872340425</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="7">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="6">
         <v>44.615384615384613</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="6">
         <v>22.051282051282051</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="6">
         <v>22.051282051282051</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="6">
         <v>9.2307692307692299</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="6">
         <v>2.0512820512820511</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="8">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="6">
         <v>41.253263707571804</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="6">
         <v>20.365535248041777</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="6">
         <v>28.720626631853786</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="6">
         <v>8.0939947780678843</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="6">
         <v>1.566579634464752</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="8">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>24.528301886792452</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>3.1446540880503147</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <v>72.012578616352201</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <v>0.31446540880503143</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
         <v>318</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="6">
         <v>13.114754098360656</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="6">
         <v>3.278688524590164</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="6">
         <v>80.327868852459019</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="6">
         <v>3.278688524590164</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
         <v>61</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="6">
         <v>22.691292875989447</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="6">
         <v>3.1662269129287597</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="6">
         <v>73.350923482849609</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="6">
         <v>0.79155672823218992</v>
       </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="8">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>40.957446808510639</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="6">
         <v>15.425531914893616</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <v>39.361702127659576</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <v>2.6595744680851063</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="6">
         <v>1.5957446808510638</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="7">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="6">
         <v>51.308900523560212</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="6">
         <v>7.329842931937173</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="6">
         <v>37.696335078534034</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="6">
         <v>2.6178010471204187</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="6">
         <v>1.0471204188481675</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="8">
         <v>191</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="6">
         <v>46.174142480211081</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="6">
         <v>11.345646437994723</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="6">
         <v>38.522427440633244</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="6">
         <v>2.6385224274406331</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="6">
         <v>1.3192612137203166</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="8">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>48.869565217391305</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="6">
         <v>27.478260869565219</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <v>18.782608695652176</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="6">
         <v>3.3043478260869565</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="6">
         <v>1.5652173913043479</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="7">
         <v>575</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="6">
         <v>33.530717986676535</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="6">
         <v>26.794966691339749</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="6">
         <v>15.099925980754996</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="6">
         <v>18.356772760917838</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="6">
         <v>6.2176165803108807</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="8">
         <v>1351</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="6">
         <v>38.110072689511945</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="6">
         <v>26.998961578400831</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="6">
         <v>16.199376947040498</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="6">
         <v>13.862928348909657</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="6">
         <v>4.8286604361370715</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="8">
         <v>1926</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6">
         <v>57.971014492753625</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="6">
         <v>33.333333333333336</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <v>5.7971014492753623</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6">
         <v>1.4492753623188406</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="6">
         <v>1.4492753623188406</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="7">
         <v>138</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="6">
         <v>60.338345864661655</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="6">
         <v>21.992481203007518</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="6">
         <v>13.909774436090226</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="6">
         <v>1.8796992481203008</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="6">
         <v>1.8796992481203008</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="8">
         <v>532</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="6">
         <v>59.850746268656714</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="6">
         <v>24.328358208955223</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="6">
         <v>12.238805970149254</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="6">
         <v>1.791044776119403</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="6">
         <v>1.791044776119403</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="8">
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>41.044776119402982</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="6">
         <v>20.895522388059703</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="6">
         <v>30.597014925373134</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6">
         <v>4.4776119402985071</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="6">
         <v>2.9850746268656718</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="7">
         <v>134</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="6">
         <v>42.931937172774866</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="6">
         <v>16.230366492146597</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="6">
         <v>28.272251308900522</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="6">
         <v>7.8534031413612562</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="6">
         <v>4.7120418848167542</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="8">
         <v>191</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="6">
         <v>42.153846153846153</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="6">
         <v>18.153846153846153</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="6">
         <v>29.23076923076923</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="6">
         <v>6.4615384615384617</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="6">
         <v>4</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="8">
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>25.79185520361991</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="6">
         <v>27.149321266968325</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <v>36.199095022624434</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <v>9.502262443438914</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="6">
         <v>1.3574660633484164</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="7">
         <v>221</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="6">
         <v>34.42622950819672</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="6">
         <v>15.573770491803279</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="6">
         <v>40.983606557377051</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="6">
         <v>7.3770491803278686</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="6">
         <v>1.639344262295082</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="8">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="6">
         <v>28.862973760932945</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="6">
         <v>23.03206997084548</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="6">
         <v>37.900874635568513</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="6">
         <v>8.7463556851311957</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="6">
         <v>1.4577259475218658</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="8">
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="6">
         <v>43.225806451612904</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="6">
         <v>14.193548387096774</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="6">
         <v>38.064516129032256</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="6">
         <v>1.2903225806451613</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="6">
         <v>3.225806451612903</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="7">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="6">
         <v>53.448275862068968</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="6">
         <v>16.810344827586206</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="6">
         <v>25.431034482758619</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="6">
         <v>2.1551724137931036</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="6">
         <v>2.1551724137931036</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="8">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="6">
         <v>49.354005167958654</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="6">
         <v>15.762273901808786</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="6">
         <v>30.49095607235142</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="6">
         <v>1.8087855297157622</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="6">
         <v>2.5839793281653747</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="8">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6">
         <v>26.126126126126128</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="6">
         <v>12.612612612612613</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="6">
         <v>60.36036036036036</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
         <v>0.90090090090090091</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="7">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="6">
         <v>46.494464944649444</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="6">
         <v>18.819188191881917</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="6">
         <v>23.247232472324722</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="6">
         <v>5.1660516605166054</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="6">
         <v>6.2730627306273066</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="8">
         <v>271</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="6">
         <v>40.575916230366495</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="6">
         <v>17.015706806282722</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="6">
         <v>34.031413612565444</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="6">
         <v>3.6649214659685865</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="6">
         <v>4.7120418848167542</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="8">
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6">
         <v>40</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
         <v>53.333333333333336</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="6">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="6">
         <v>41.388888888888886</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="6">
         <v>13.333333333333334</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="6">
         <v>41.666666666666664</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="6">
         <v>1.6666666666666667</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="6">
         <v>1.9444444444444444</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="8">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="6">
         <v>41.333333333333336</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="6">
         <v>12.8</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="6">
         <v>42.133333333333333</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="6">
         <v>1.8666666666666667</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="6">
         <v>1.8666666666666667</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="8">
         <v>375</v>
       </c>
     </row>
